--- a/data/schedule_old.xlsx
+++ b/data/schedule_old.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/Literature/Reading group/RuhrMetrics_Reading_Group/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/RGS documents/Reading group/RuhrMetrics_Reading_Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AC2A956-C561-4AC4-A24D-29FC6CB15850}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41CFDF5F-B1E1-4175-8BCB-27AE537CF1E0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-14508" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -45,36 +45,18 @@
     <t>Antonio Fioravanti</t>
   </si>
   <si>
-    <t>&lt;a href = "paper/Rambachan_timeseries_causal_nonparametric.pdf" download="Rambachan_timeseries_causal_nonparametric.pdf"&gt;When Do Common Time Series Estimands Have Nonparametric Causal Meaning?&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="paper/Sims_marcoeconomics_and_reality.pdf" download="Sims_marcoeconomics_and_reality.pdf"&gt;Macroeconomics and Reality&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Sven Pappert</t>
   </si>
   <si>
     <t>Simon Hirsch</t>
   </si>
   <si>
-    <t>&lt;a href = "paper/Wickramasuriya_Optimal_Forecast_Reconciliation_for_Hierarchical_and_Grouped_Time_Series_Through_Trace_Minimization.pdf" download="Wickramasuriya_Optimal_Forecast_Reconciliation_for_Hierarchical_and_Grouped_Time_Series_Through_Trace_Minimization.pdf"&gt; Optimal Forecast Reconciliation for Hierarchical and Grouped Time Series Through Trace Minimization&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = "paper/Rigby-Generalized_additive_models_for_location_scale_and_shape.pdf" download="Rigby-Generalized_additive_models_for_location_scale_and_shape.pdf"&gt;  GAMLSS (Generalised additive Model for Location, Scale and Shape)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Files</t>
   </si>
   <si>
-    <t>&lt;a href = "paper/Hill_Bayesian_Nonparametric_Modeling_for_Causal_Inference.pdf" download="Hill_Bayesian_Nonparametric_Modeling_for_Causal_Inference.pdf"&gt; Bayesian Nonparametric Modeling for Causal Inference&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href = "presentation/causal_macro_reading_group_WS24.pdf" download="causal_macro_reading_group_WS24.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href="paper/Chen_Autoregressive_models_for_matrix-valued_time_series.pdf" download="Chen_Autoregressive_models_for_matrix-valued_time_series.pdf"&gt;Autoregressive models for matrix-valued time series&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href = "presentation/Macroeconomics_and_Reality_Presentation.pdf" download="Macroeconomics_and_Reality_Presentation.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
   </si>
   <si>
@@ -85,6 +67,24 @@
   </si>
   <si>
     <t>&lt;a href = "presentation/MinT.pdf" download="MinT.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="paper_old/Chen_Autoregressive_models_for_matrix-valued_time_series.pdf" download="Chen_Autoregressive_models_for_matrix-valued_time_series.pdf"&gt;Autoregressive models for matrix-valued time series&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="paper_old/Sims_marcoeconomics_and_reality.pdf" download="Sims_marcoeconomics_and_reality.pdf"&gt;Macroeconomics and Reality&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "paper_old/Rambachan_timeseries_causal_nonparametric.pdf" download="Rambachan_timeseries_causal_nonparametric.pdf"&gt;When Do Common Time Series Estimands Have Nonparametric Causal Meaning?&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "paper_old/Rigby-Generalized_additive_models_for_location_scale_and_shape.pdf" download="Rigby-Generalized_additive_models_for_location_scale_and_shape.pdf"&gt;  GAMLSS (Generalised additive Model for Location, Scale and Shape)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "paper_old/Hill_Bayesian_Nonparametric_Modeling_for_Causal_Inference.pdf" download="Hill_Bayesian_Nonparametric_Modeling_for_Causal_Inference.pdf"&gt; Bayesian Nonparametric Modeling for Causal Inference&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "paper_old/Wickramasuriya_Optimal_Forecast_Reconciliation_for_Hierarchical_and_Grouped_Time_Series_Through_Trace_Minimization.pdf" download="Wickramasuriya_Optimal_Forecast_Reconciliation_for_Hierarchical_and_Grouped_Time_Series_Through_Trace_Minimization.pdf"&gt; Optimal Forecast Reconciliation for Hierarchical and Grouped Time Series Through Trace Minimization&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -442,16 +442,16 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="115.6640625" customWidth="1"/>
+    <col min="1" max="1" width="115.7109375" customWidth="1"/>
     <col min="3" max="3" width="120" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,67 +459,67 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
